--- a/SQL assignments/Ci-Platform_DB-Schema.xlsx
+++ b/SQL assignments/Ci-Platform_DB-Schema.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tatvasoft\CI Platform\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Tatvasoft\SQL assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="108">
   <si>
     <t>CI Platform DB-Schema</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>0,1,</t>
+  </si>
+  <si>
+    <t>CANCEL</t>
   </si>
 </sst>
 </file>
@@ -508,24 +511,15 @@
   </cellStyleXfs>
   <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -538,7 +532,16 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -821,10 +824,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H145"/>
+  <dimension ref="A1:J145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H144" sqref="H144"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -838,734 +841,734 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="A2" s="13"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="13"/>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="13"/>
+      <c r="H2" s="13"/>
     </row>
     <row r="4" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="6"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
     </row>
     <row r="5" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="6"/>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="3" t="s">
+      <c r="D6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G6" s="3" t="s">
+      <c r="G6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="1" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C7" s="4">
-        <v>20</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F7" s="4" t="s">
+      <c r="C7" s="2">
+        <v>20</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="2">
         <v>16</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
+      <c r="E8" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <v>16</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E9" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
+      <c r="E9" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <v>128</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
+      <c r="D10" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="2">
         <v>255</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E11" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
+      <c r="D11" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="2">
         <v>11</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
+      <c r="D12" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C13" s="4">
+      <c r="C13" s="2">
         <v>2048</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E13" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
+      <c r="E13" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="2"/>
+      <c r="D14" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
+      <c r="E14" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="2">
         <v>16</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E15" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F15" s="4"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
+      <c r="E15" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="4">
+      <c r="C16" s="2">
         <v>16</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F16" s="4"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
+      <c r="E16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C17" s="4">
-        <v>20</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="C17" s="2">
+        <v>20</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G17" s="4" t="s">
+      <c r="G17" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H17" s="4" t="s">
+      <c r="H17" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18" s="4" t="s">
+      <c r="A18" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C18" s="4">
-        <v>20</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F18" s="4" t="s">
+      <c r="C18" s="2">
+        <v>20</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G18" s="4" t="s">
+      <c r="G18" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H18" s="4" t="s">
+      <c r="H18" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C19" s="4"/>
-      <c r="D19" s="4" t="s">
+      <c r="C19" s="2"/>
+      <c r="D19" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
+      <c r="E19" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C20" s="4">
+      <c r="C20" s="2">
         <v>255</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
+      <c r="E20" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A21" s="4" t="s">
+      <c r="A21" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="2">
         <v>255</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
+      <c r="E21" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A22" s="4" t="s">
+      <c r="A22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="4" t="s">
+      <c r="C22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
+      <c r="D22" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C23" s="4" t="s">
+      <c r="C23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="4" t="s">
+      <c r="D23" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F23" s="4" t="s">
+      <c r="F23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G23" s="4" t="s">
+      <c r="G23" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H23" s="4" t="s">
+      <c r="H23" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A24" s="4" t="s">
+      <c r="A24" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F24" s="4" t="s">
+      <c r="E24" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G24" s="4" t="s">
+      <c r="G24" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H24" s="4" t="s">
+      <c r="H24" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A25" s="4" t="s">
+      <c r="A25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F25" s="4" t="s">
+      <c r="E25" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G25" s="4" t="s">
+      <c r="G25" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H25" s="4" t="s">
+      <c r="H25" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A28" s="6" t="s">
+      <c r="A28" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A30" s="8" t="s">
+      <c r="A30" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C30" s="8" t="s">
+      <c r="C30" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E30" s="8" t="s">
+      <c r="D30" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="8" t="s">
+      <c r="G30" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H30" s="8" t="s">
+      <c r="H30" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A31" s="4" t="s">
+      <c r="A31" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C31" s="4">
-        <v>20</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F31" s="4" t="s">
+      <c r="C31" s="2">
+        <v>20</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F31" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G31" s="4" t="s">
+      <c r="G31" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H31" s="4" t="s">
+      <c r="H31" s="2" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A32" s="4" t="s">
+      <c r="A32" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="2">
         <v>16</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F32" s="4"/>
-      <c r="G32" s="4"/>
-      <c r="H32" s="4"/>
+      <c r="E32" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2"/>
+      <c r="G32" s="2"/>
+      <c r="H32" s="2"/>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A33" s="4" t="s">
+      <c r="A33" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C33" s="4">
+      <c r="C33" s="2">
         <v>16</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F33" s="4"/>
-      <c r="G33" s="4"/>
-      <c r="H33" s="4"/>
+      <c r="E33" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2"/>
+      <c r="G33" s="2"/>
+      <c r="H33" s="2"/>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A34" s="4" t="s">
+      <c r="A34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C34" s="4">
+      <c r="C34" s="2">
         <v>128</v>
       </c>
-      <c r="D34" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E34" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="4"/>
-      <c r="G34" s="4"/>
-      <c r="H34" s="4"/>
+      <c r="D34" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="2"/>
+      <c r="H34" s="2"/>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A35" s="4" t="s">
+      <c r="A35" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C35" s="4">
+      <c r="C35" s="2">
         <v>2048</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F35" s="4"/>
-      <c r="G35" s="4"/>
-      <c r="H35" s="4"/>
+      <c r="E35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A36" s="4" t="s">
+      <c r="A36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="4">
+      <c r="C36" s="2">
         <v>255</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
-      <c r="H36" s="4"/>
+      <c r="D36" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F36" s="2"/>
+      <c r="G36" s="2"/>
+      <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A37" s="4" t="s">
+      <c r="A37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C37" s="4" t="s">
+      <c r="C37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E37" s="4" t="s">
+      <c r="D37" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="F37" s="4" t="s">
+      <c r="F37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G37" s="4" t="s">
+      <c r="G37" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H37" s="4" t="s">
+      <c r="H37" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A38" s="4" t="s">
+      <c r="A38" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B38" s="4" t="s">
+      <c r="B38" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="C38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D38" s="4" t="s">
+      <c r="D38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F38" s="4" t="s">
+      <c r="E38" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G38" s="4" t="s">
+      <c r="G38" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H38" s="4" t="s">
+      <c r="H38" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A39" s="4" t="s">
+      <c r="A39" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B39" s="4" t="s">
+      <c r="B39" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="4" t="s">
+      <c r="C39" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D39" s="4" t="s">
+      <c r="D39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F39" s="4" t="s">
+      <c r="E39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F39" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G39" s="4" t="s">
+      <c r="G39" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="H39" s="4" t="s">
+      <c r="H39" s="2" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1575,50 +1578,50 @@
       </c>
     </row>
     <row r="42" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="6" t="s">
+      <c r="A42" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="7"/>
-      <c r="E42" s="7"/>
-      <c r="F42" s="7"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7"/>
+      <c r="B42" s="5"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="5"/>
+      <c r="E42" s="5"/>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
+      <c r="H42" s="5"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="7"/>
-      <c r="E43" s="7"/>
-      <c r="F43" s="7"/>
-      <c r="G43" s="7"/>
-      <c r="H43" s="7"/>
+      <c r="A43" s="5"/>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A44" s="8" t="s">
+      <c r="A44" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B44" s="8" t="s">
+      <c r="B44" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="8" t="s">
+      <c r="C44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D44" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E44" s="8" t="s">
+      <c r="D44" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E44" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F44" s="8" t="s">
+      <c r="F44" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="8" t="s">
+      <c r="G44" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H44" s="8" t="s">
+      <c r="H44" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1663,50 +1666,50 @@
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A49" s="9" t="s">
+      <c r="A49" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B49" s="10"/>
-      <c r="C49" s="10"/>
-      <c r="D49" s="10"/>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="G49" s="10"/>
-      <c r="H49" s="11"/>
+      <c r="B49" s="7"/>
+      <c r="C49" s="7"/>
+      <c r="D49" s="7"/>
+      <c r="E49" s="7"/>
+      <c r="F49" s="7"/>
+      <c r="G49" s="7"/>
+      <c r="H49" s="8"/>
     </row>
     <row r="50" spans="1:8" ht="14.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A50" s="12"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="5"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="5"/>
-      <c r="G50" s="5"/>
-      <c r="H50" s="13"/>
+      <c r="A50" s="9"/>
+      <c r="B50" s="10"/>
+      <c r="C50" s="10"/>
+      <c r="D50" s="10"/>
+      <c r="E50" s="10"/>
+      <c r="F50" s="10"/>
+      <c r="G50" s="10"/>
+      <c r="H50" s="11"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A51" s="8" t="s">
+      <c r="A51" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C51" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D51" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E51" s="8" t="s">
+      <c r="D51" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G51" s="8" t="s">
+      <c r="G51" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H51" s="8" t="s">
+      <c r="H51" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -1780,72 +1783,72 @@
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A57" s="6" t="s">
+      <c r="A57" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="B57" s="7"/>
-      <c r="C57" s="7"/>
-      <c r="D57" s="7"/>
-      <c r="E57" s="7"/>
-      <c r="F57" s="7"/>
-      <c r="G57" s="7"/>
-      <c r="H57" s="7"/>
+      <c r="B57" s="5"/>
+      <c r="C57" s="5"/>
+      <c r="D57" s="5"/>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A58" s="7"/>
-      <c r="B58" s="7"/>
-      <c r="C58" s="7"/>
-      <c r="D58" s="7"/>
-      <c r="E58" s="7"/>
-      <c r="F58" s="7"/>
-      <c r="G58" s="7"/>
-      <c r="H58" s="7"/>
+      <c r="A58" s="5"/>
+      <c r="B58" s="5"/>
+      <c r="C58" s="5"/>
+      <c r="D58" s="5"/>
+      <c r="E58" s="5"/>
+      <c r="F58" s="5"/>
+      <c r="G58" s="5"/>
+      <c r="H58" s="5"/>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A59" s="8" t="s">
+      <c r="A59" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B59" s="8" t="s">
+      <c r="B59" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C59" s="8" t="s">
+      <c r="C59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D59" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E59" s="8" t="s">
+      <c r="D59" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E59" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G59" s="8" t="s">
+      <c r="G59" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H59" s="8" t="s">
+      <c r="H59" s="3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A60" s="4" t="s">
+      <c r="A60" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B60" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C60" s="4">
+      <c r="C60" s="2">
         <v>128</v>
       </c>
-      <c r="D60" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F60" s="4"/>
-      <c r="G60" s="4"/>
-      <c r="H60" s="4" t="s">
+      <c r="D60" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2" t="s">
         <v>57</v>
       </c>
     </row>
@@ -1870,204 +1873,207 @@
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A64" s="6" t="s">
+      <c r="A64" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7"/>
-      <c r="F64" s="7"/>
-      <c r="G64" s="7"/>
-      <c r="H64" s="7"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A65" s="7"/>
-      <c r="B65" s="7"/>
-      <c r="C65" s="7"/>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7"/>
-      <c r="F65" s="7"/>
-      <c r="G65" s="7"/>
-      <c r="H65" s="7"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A66" s="8" t="s">
+      <c r="B64" s="5"/>
+      <c r="C64" s="5"/>
+      <c r="D64" s="5"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="5"/>
+      <c r="D65" s="5"/>
+      <c r="E65" s="5"/>
+      <c r="F65" s="5"/>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A66" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B66" s="8" t="s">
+      <c r="B66" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="C66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E66" s="8" t="s">
+      <c r="D66" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E66" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G66" s="8" t="s">
+      <c r="G66" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H66" s="8" t="s">
+      <c r="H66" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A67" s="4" t="s">
+    <row r="67" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A67" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B67" s="4" t="s">
+      <c r="B67" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C67" s="4">
+      <c r="C67" s="2">
         <v>16</v>
       </c>
-      <c r="D67" s="4" t="s">
+      <c r="D67" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E67" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F67" s="4"/>
-      <c r="G67" s="4"/>
-      <c r="H67" s="4"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A68" s="4" t="s">
+      <c r="E67" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2"/>
+      <c r="J67" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A68" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="4" t="s">
+      <c r="B68" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C68" s="4">
+      <c r="C68" s="2">
         <v>16</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E68" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="F68" s="4"/>
-      <c r="G68" s="4"/>
-      <c r="H68" s="4"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A69" s="4" t="s">
+      <c r="E68" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="2"/>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A69" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B69" s="4" t="s">
+      <c r="B69" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C69" s="4">
+      <c r="C69" s="2">
         <v>128</v>
       </c>
-      <c r="D69" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E69" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F69" s="4"/>
-      <c r="G69" s="4"/>
-      <c r="H69" s="4" t="s">
+      <c r="D69" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A70" s="4" t="s">
+    <row r="70" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A70" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="B70" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C70" s="4">
+      <c r="C70" s="2">
         <v>255</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F70" s="4"/>
-      <c r="G70" s="4"/>
-      <c r="H70" s="4"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A71" s="4" t="s">
+      <c r="D70" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A71" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B71" s="4" t="s">
+      <c r="B71" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C71" s="4">
+      <c r="C71" s="2">
         <v>11</v>
       </c>
-      <c r="D71" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="F71" s="4"/>
-      <c r="G71" s="4"/>
-      <c r="H71" s="4"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A74" s="6" t="s">
+      <c r="D71" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A74" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B74" s="7"/>
-      <c r="C74" s="7"/>
-      <c r="D74" s="7"/>
-      <c r="E74" s="7"/>
-      <c r="F74" s="7"/>
-      <c r="G74" s="7"/>
-      <c r="H74" s="7"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A75" s="7"/>
-      <c r="B75" s="7"/>
-      <c r="C75" s="7"/>
-      <c r="D75" s="7"/>
-      <c r="E75" s="7"/>
-      <c r="F75" s="7"/>
-      <c r="G75" s="7"/>
-      <c r="H75" s="7"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A76" s="8" t="s">
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="5"/>
+      <c r="F74" s="5"/>
+      <c r="G74" s="5"/>
+      <c r="H74" s="5"/>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="5"/>
+      <c r="D75" s="5"/>
+      <c r="E75" s="5"/>
+      <c r="F75" s="5"/>
+      <c r="G75" s="5"/>
+      <c r="H75" s="5"/>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A76" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C76" s="8" t="s">
+      <c r="C76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D76" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E76" s="8" t="s">
+      <c r="D76" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F76" s="8" t="s">
+      <c r="F76" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G76" s="8" t="s">
+      <c r="G76" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H76" s="8" t="s">
+      <c r="H76" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
         <v>61</v>
       </c>
@@ -2093,7 +2099,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
         <v>62</v>
       </c>
@@ -2110,7 +2116,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
         <v>72</v>
       </c>
@@ -2127,7 +2133,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
         <v>73</v>
       </c>
@@ -2350,50 +2356,50 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A95" s="6" t="s">
+      <c r="A95" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B95" s="7"/>
-      <c r="C95" s="7"/>
-      <c r="D95" s="7"/>
-      <c r="E95" s="7"/>
-      <c r="F95" s="7"/>
-      <c r="G95" s="7"/>
-      <c r="H95" s="7"/>
+      <c r="B95" s="5"/>
+      <c r="C95" s="5"/>
+      <c r="D95" s="5"/>
+      <c r="E95" s="5"/>
+      <c r="F95" s="5"/>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A96" s="7"/>
-      <c r="B96" s="7"/>
-      <c r="C96" s="7"/>
-      <c r="D96" s="7"/>
-      <c r="E96" s="7"/>
-      <c r="F96" s="7"/>
-      <c r="G96" s="7"/>
-      <c r="H96" s="7"/>
+      <c r="A96" s="5"/>
+      <c r="B96" s="5"/>
+      <c r="C96" s="5"/>
+      <c r="D96" s="5"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A97" s="8" t="s">
+      <c r="A97" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B97" s="8" t="s">
+      <c r="B97" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C97" s="8" t="s">
+      <c r="C97" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D97" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E97" s="8" t="s">
+      <c r="D97" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E97" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G97" s="8" t="s">
+      <c r="G97" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H97" s="8" t="s">
+      <c r="H97" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2523,50 +2529,50 @@
       </c>
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A107" s="6" t="s">
+      <c r="A107" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B107" s="7"/>
-      <c r="C107" s="7"/>
-      <c r="D107" s="7"/>
-      <c r="E107" s="7"/>
-      <c r="F107" s="7"/>
-      <c r="G107" s="7"/>
-      <c r="H107" s="7"/>
+      <c r="B107" s="5"/>
+      <c r="C107" s="5"/>
+      <c r="D107" s="5"/>
+      <c r="E107" s="5"/>
+      <c r="F107" s="5"/>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A108" s="7"/>
-      <c r="B108" s="7"/>
-      <c r="C108" s="7"/>
-      <c r="D108" s="7"/>
-      <c r="E108" s="7"/>
-      <c r="F108" s="7"/>
-      <c r="G108" s="7"/>
-      <c r="H108" s="7"/>
+      <c r="A108" s="5"/>
+      <c r="B108" s="5"/>
+      <c r="C108" s="5"/>
+      <c r="D108" s="5"/>
+      <c r="E108" s="5"/>
+      <c r="F108" s="5"/>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A109" s="8" t="s">
+      <c r="A109" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B109" s="8" t="s">
+      <c r="B109" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C109" s="8" t="s">
+      <c r="C109" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D109" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E109" s="8" t="s">
+      <c r="D109" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E109" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F109" s="8" t="s">
+      <c r="F109" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G109" s="8" t="s">
+      <c r="G109" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H109" s="8" t="s">
+      <c r="H109" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2662,50 +2668,50 @@
       </c>
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A117" s="6" t="s">
+      <c r="A117" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B117" s="7"/>
-      <c r="C117" s="7"/>
-      <c r="D117" s="7"/>
-      <c r="E117" s="7"/>
-      <c r="F117" s="7"/>
-      <c r="G117" s="7"/>
-      <c r="H117" s="7"/>
+      <c r="B117" s="5"/>
+      <c r="C117" s="5"/>
+      <c r="D117" s="5"/>
+      <c r="E117" s="5"/>
+      <c r="F117" s="5"/>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A118" s="7"/>
-      <c r="B118" s="7"/>
-      <c r="C118" s="7"/>
-      <c r="D118" s="7"/>
-      <c r="E118" s="7"/>
-      <c r="F118" s="7"/>
-      <c r="G118" s="7"/>
-      <c r="H118" s="7"/>
+      <c r="A118" s="5"/>
+      <c r="B118" s="5"/>
+      <c r="C118" s="5"/>
+      <c r="D118" s="5"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5"/>
+      <c r="H118" s="5"/>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A119" s="8" t="s">
+      <c r="A119" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B119" s="8" t="s">
+      <c r="B119" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C119" s="8" t="s">
+      <c r="C119" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D119" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E119" s="8" t="s">
+      <c r="D119" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E119" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F119" s="8" t="s">
+      <c r="F119" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G119" s="8" t="s">
+      <c r="G119" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H119" s="8" t="s">
+      <c r="H119" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2812,50 +2818,50 @@
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A129" s="6" t="s">
+      <c r="A129" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B129" s="7"/>
-      <c r="C129" s="7"/>
-      <c r="D129" s="7"/>
-      <c r="E129" s="7"/>
-      <c r="F129" s="7"/>
-      <c r="G129" s="7"/>
-      <c r="H129" s="7"/>
+      <c r="B129" s="5"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="5"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A130" s="7"/>
-      <c r="B130" s="7"/>
-      <c r="C130" s="7"/>
-      <c r="D130" s="7"/>
-      <c r="E130" s="7"/>
-      <c r="F130" s="7"/>
-      <c r="G130" s="7"/>
-      <c r="H130" s="7"/>
+      <c r="A130" s="5"/>
+      <c r="B130" s="5"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="5"/>
+      <c r="E130" s="5"/>
+      <c r="F130" s="5"/>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A131" s="8" t="s">
+      <c r="A131" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B131" s="8" t="s">
+      <c r="B131" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C131" s="8" t="s">
+      <c r="C131" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D131" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E131" s="8" t="s">
+      <c r="D131" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E131" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F131" s="8" t="s">
+      <c r="F131" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G131" s="8" t="s">
+      <c r="G131" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H131" s="8" t="s">
+      <c r="H131" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -2903,50 +2909,50 @@
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A135" s="6" t="s">
+      <c r="A135" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B135" s="7"/>
-      <c r="C135" s="7"/>
-      <c r="D135" s="7"/>
-      <c r="E135" s="7"/>
-      <c r="F135" s="7"/>
-      <c r="G135" s="7"/>
-      <c r="H135" s="7"/>
+      <c r="B135" s="5"/>
+      <c r="C135" s="5"/>
+      <c r="D135" s="5"/>
+      <c r="E135" s="5"/>
+      <c r="F135" s="5"/>
+      <c r="G135" s="5"/>
+      <c r="H135" s="5"/>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A136" s="7"/>
-      <c r="B136" s="7"/>
-      <c r="C136" s="7"/>
-      <c r="D136" s="7"/>
-      <c r="E136" s="7"/>
-      <c r="F136" s="7"/>
-      <c r="G136" s="7"/>
-      <c r="H136" s="7"/>
+      <c r="A136" s="5"/>
+      <c r="B136" s="5"/>
+      <c r="C136" s="5"/>
+      <c r="D136" s="5"/>
+      <c r="E136" s="5"/>
+      <c r="F136" s="5"/>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A137" s="8" t="s">
+      <c r="A137" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B137" s="8" t="s">
+      <c r="B137" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="8" t="s">
+      <c r="C137" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="D137" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="E137" s="8" t="s">
+      <c r="D137" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E137" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="F137" s="8" t="s">
+      <c r="F137" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G137" s="8" t="s">
+      <c r="G137" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="H137" s="8" t="s">
+      <c r="H137" s="3" t="s">
         <v>8</v>
       </c>
     </row>
@@ -3103,19 +3109,19 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A1:H2"/>
+    <mergeCell ref="A28:H29"/>
+    <mergeCell ref="A4:H5"/>
+    <mergeCell ref="A42:H43"/>
+    <mergeCell ref="A57:H58"/>
+    <mergeCell ref="A64:H65"/>
+    <mergeCell ref="A74:H75"/>
+    <mergeCell ref="A95:H96"/>
     <mergeCell ref="A107:H108"/>
     <mergeCell ref="A117:H118"/>
     <mergeCell ref="A129:H130"/>
     <mergeCell ref="A135:H136"/>
     <mergeCell ref="A49:H50"/>
-    <mergeCell ref="A42:H43"/>
-    <mergeCell ref="A57:H58"/>
-    <mergeCell ref="A64:H65"/>
-    <mergeCell ref="A74:H75"/>
-    <mergeCell ref="A95:H96"/>
-    <mergeCell ref="A1:H2"/>
-    <mergeCell ref="A28:H29"/>
-    <mergeCell ref="A4:H5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
